--- a/data/csv/src/data_latest_wls.xlsx
+++ b/data/csv/src/data_latest_wls.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34234" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39826" uniqueCount="169">
   <si>
     <t>Local Authority</t>
   </si>
@@ -499,6 +499,33 @@
   <si>
     <t>28 Apr 2020 17:00</t>
   </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>29 Apr 2020 13:00</t>
+  </si>
+  <si>
+    <t>29 Apr 2020 17:00</t>
+  </si>
 </sst>
 </file>
 
@@ -971,7 +998,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -979,7 +1006,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" ht="18.75" thickBot="true">
@@ -1177,16 +1204,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E2" s="0">
-        <v>387.30000000000001</v>
+        <v>390.20000000000005</v>
       </c>
       <c r="F2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="0">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3">
@@ -1197,19 +1224,19 @@
         <v>43948</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E3" s="0">
-        <v>387.30000000000001</v>
+        <v>390.20000000000005</v>
       </c>
       <c r="F3" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="0">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4">
@@ -1220,19 +1247,19 @@
         <v>43947</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E4" s="0">
-        <v>387.30000000000001</v>
+        <v>388.70000000000005</v>
       </c>
       <c r="F4" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G4" s="0">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5">
@@ -1252,10 +1279,10 @@
         <v>385.90000000000003</v>
       </c>
       <c r="F5" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6">
@@ -3753,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="D114" s="0">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="E114" s="0">
-        <v>267.80000000000001</v>
+        <v>276.80000000000001</v>
       </c>
       <c r="F114" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G114" s="0">
-        <v>1483</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="115">
@@ -3773,19 +3800,19 @@
         <v>43948</v>
       </c>
       <c r="C115" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D115" s="0">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="E115" s="0">
-        <v>267.80000000000001</v>
+        <v>276.80000000000001</v>
       </c>
       <c r="F115" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G115" s="0">
-        <v>1483</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="116">
@@ -3796,19 +3823,19 @@
         <v>43947</v>
       </c>
       <c r="C116" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D116" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E116" s="0">
-        <v>267.80000000000001</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="F116" s="0">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G116" s="0">
-        <v>1483</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="117">
@@ -6326,19 +6353,19 @@
         <v>43949</v>
       </c>
       <c r="C226" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" s="0">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="E226" s="0">
-        <v>321.5</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="F226" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G226" s="0">
-        <v>1596</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="227">
@@ -6349,19 +6376,19 @@
         <v>43948</v>
       </c>
       <c r="C227" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D227" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E227" s="0">
-        <v>321.5</v>
+        <v>324.80000000000001</v>
       </c>
       <c r="F227" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G227" s="0">
-        <v>1596</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="228">
@@ -6381,10 +6408,10 @@
         <v>321.5</v>
       </c>
       <c r="F228" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G228" s="0">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="229">
@@ -6407,7 +6434,7 @@
         <v>33</v>
       </c>
       <c r="G229" s="0">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="230">
@@ -6430,7 +6457,7 @@
         <v>60</v>
       </c>
       <c r="G230" s="0">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="231">
@@ -6453,7 +6480,7 @@
         <v>57</v>
       </c>
       <c r="G231" s="0">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="232">
@@ -6473,10 +6500,10 @@
         <v>303.80000000000001</v>
       </c>
       <c r="F232" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G232" s="0">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="233">
@@ -6499,7 +6526,7 @@
         <v>51</v>
       </c>
       <c r="G233" s="0">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="234">
@@ -6522,7 +6549,7 @@
         <v>51</v>
       </c>
       <c r="G234" s="0">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="235">
@@ -6545,7 +6572,7 @@
         <v>20</v>
       </c>
       <c r="G235" s="0">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="236">
@@ -6568,7 +6595,7 @@
         <v>59</v>
       </c>
       <c r="G236" s="0">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="237">
@@ -6591,7 +6618,7 @@
         <v>47</v>
       </c>
       <c r="G237" s="0">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="238">
@@ -6614,7 +6641,7 @@
         <v>68</v>
       </c>
       <c r="G238" s="0">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="239">
@@ -6637,7 +6664,7 @@
         <v>53</v>
       </c>
       <c r="G239" s="0">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="240">
@@ -6660,7 +6687,7 @@
         <v>31</v>
       </c>
       <c r="G240" s="0">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="241">
@@ -6683,7 +6710,7 @@
         <v>29</v>
       </c>
       <c r="G241" s="0">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="242">
@@ -6706,7 +6733,7 @@
         <v>26</v>
       </c>
       <c r="G242" s="0">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="243">
@@ -6729,7 +6756,7 @@
         <v>31</v>
       </c>
       <c r="G243" s="0">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="244">
@@ -6752,7 +6779,7 @@
         <v>37</v>
       </c>
       <c r="G244" s="0">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="245">
@@ -6775,7 +6802,7 @@
         <v>51</v>
       </c>
       <c r="G245" s="0">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="246">
@@ -6798,7 +6825,7 @@
         <v>48</v>
       </c>
       <c r="G246" s="0">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="247">
@@ -6821,7 +6848,7 @@
         <v>34</v>
       </c>
       <c r="G247" s="0">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="248">
@@ -6844,7 +6871,7 @@
         <v>50</v>
       </c>
       <c r="G248" s="0">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="249">
@@ -6867,7 +6894,7 @@
         <v>12</v>
       </c>
       <c r="G249" s="0">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="250">
@@ -6890,7 +6917,7 @@
         <v>34</v>
       </c>
       <c r="G250" s="0">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="251">
@@ -6913,7 +6940,7 @@
         <v>44</v>
       </c>
       <c r="G251" s="0">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="252">
@@ -6933,10 +6960,10 @@
         <v>138.70000000000002</v>
       </c>
       <c r="F252" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G252" s="0">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="253">
@@ -6959,7 +6986,7 @@
         <v>49</v>
       </c>
       <c r="G253" s="0">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254">
@@ -6982,7 +7009,7 @@
         <v>43</v>
       </c>
       <c r="G254" s="0">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="255">
@@ -7005,7 +7032,7 @@
         <v>46</v>
       </c>
       <c r="G255" s="0">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="256">
@@ -7028,7 +7055,7 @@
         <v>35</v>
       </c>
       <c r="G256" s="0">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="257">
@@ -7051,7 +7078,7 @@
         <v>23</v>
       </c>
       <c r="G257" s="0">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="258">
@@ -7074,7 +7101,7 @@
         <v>42</v>
       </c>
       <c r="G258" s="0">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="259">
@@ -7097,7 +7124,7 @@
         <v>29</v>
       </c>
       <c r="G259" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="260">
@@ -7120,7 +7147,7 @@
         <v>41</v>
       </c>
       <c r="G260" s="0">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261">
@@ -7140,10 +7167,10 @@
         <v>46.400000000000006</v>
       </c>
       <c r="F261" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G261" s="0">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="262">
@@ -8902,19 +8929,19 @@
         <v>43949</v>
       </c>
       <c r="C338" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D338" s="0">
-        <v>1653</v>
+        <v>1668</v>
       </c>
       <c r="E338" s="0">
-        <v>453.80000000000001</v>
+        <v>457.90000000000003</v>
       </c>
       <c r="F338" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G338" s="0">
-        <v>4638</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="339">
@@ -8925,19 +8952,19 @@
         <v>43948</v>
       </c>
       <c r="C339" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D339" s="0">
-        <v>1653</v>
+        <v>1665</v>
       </c>
       <c r="E339" s="0">
-        <v>453.80000000000001</v>
+        <v>457.10000000000002</v>
       </c>
       <c r="F339" s="0">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="G339" s="0">
-        <v>4638</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="340">
@@ -8957,10 +8984,10 @@
         <v>453.80000000000001</v>
       </c>
       <c r="F340" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G340" s="0">
-        <v>4633</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="341">
@@ -8980,10 +9007,10 @@
         <v>450</v>
       </c>
       <c r="F341" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G341" s="0">
-        <v>4551</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="342">
@@ -9006,7 +9033,7 @@
         <v>88</v>
       </c>
       <c r="G342" s="0">
-        <v>4478</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="343">
@@ -9029,7 +9056,7 @@
         <v>120</v>
       </c>
       <c r="G343" s="0">
-        <v>4390</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="344">
@@ -9052,7 +9079,7 @@
         <v>125</v>
       </c>
       <c r="G344" s="0">
-        <v>4270</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="345">
@@ -9075,7 +9102,7 @@
         <v>151</v>
       </c>
       <c r="G345" s="0">
-        <v>4145</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="346">
@@ -9098,7 +9125,7 @@
         <v>123</v>
       </c>
       <c r="G346" s="0">
-        <v>3994</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="347">
@@ -9121,7 +9148,7 @@
         <v>87</v>
       </c>
       <c r="G347" s="0">
-        <v>3871</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="348">
@@ -9144,7 +9171,7 @@
         <v>105</v>
       </c>
       <c r="G348" s="0">
-        <v>3784</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="349">
@@ -9164,10 +9191,10 @@
         <v>376.90000000000003</v>
       </c>
       <c r="F349" s="0">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G349" s="0">
-        <v>3679</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="350">
@@ -9187,10 +9214,10 @@
         <v>365.40000000000003</v>
       </c>
       <c r="F350" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G350" s="0">
-        <v>3548</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="351">
@@ -9213,7 +9240,7 @@
         <v>129</v>
       </c>
       <c r="G351" s="0">
-        <v>3408</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="352">
@@ -9236,7 +9263,7 @@
         <v>134</v>
       </c>
       <c r="G352" s="0">
-        <v>3279</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="353">
@@ -9259,7 +9286,7 @@
         <v>106</v>
       </c>
       <c r="G353" s="0">
-        <v>3145</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="354">
@@ -9282,7 +9309,7 @@
         <v>81</v>
       </c>
       <c r="G354" s="0">
-        <v>3039</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="355">
@@ -9305,7 +9332,7 @@
         <v>85</v>
       </c>
       <c r="G355" s="0">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="356">
@@ -9325,10 +9352,10 @@
         <v>287.19999999999999</v>
       </c>
       <c r="F356" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G356" s="0">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="357">
@@ -9351,7 +9378,7 @@
         <v>148</v>
       </c>
       <c r="G357" s="0">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="358">
@@ -9374,7 +9401,7 @@
         <v>152</v>
       </c>
       <c r="G358" s="0">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="359">
@@ -9397,7 +9424,7 @@
         <v>153</v>
       </c>
       <c r="G359" s="0">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="360">
@@ -9420,7 +9447,7 @@
         <v>147</v>
       </c>
       <c r="G360" s="0">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="361">
@@ -9443,7 +9470,7 @@
         <v>71</v>
       </c>
       <c r="G361" s="0">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="362">
@@ -9466,7 +9493,7 @@
         <v>97</v>
       </c>
       <c r="G362" s="0">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="363">
@@ -9489,7 +9516,7 @@
         <v>125</v>
       </c>
       <c r="G363" s="0">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="364">
@@ -9512,7 +9539,7 @@
         <v>189</v>
       </c>
       <c r="G364" s="0">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="365">
@@ -9535,7 +9562,7 @@
         <v>156</v>
       </c>
       <c r="G365" s="0">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="366">
@@ -9558,7 +9585,7 @@
         <v>142</v>
       </c>
       <c r="G366" s="0">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="367">
@@ -9581,7 +9608,7 @@
         <v>158</v>
       </c>
       <c r="G367" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="368">
@@ -9604,7 +9631,7 @@
         <v>77</v>
       </c>
       <c r="G368" s="0">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="369">
@@ -9627,7 +9654,7 @@
         <v>81</v>
       </c>
       <c r="G369" s="0">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="370">
@@ -9650,7 +9677,7 @@
         <v>113</v>
       </c>
       <c r="G370" s="0">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="371">
@@ -9673,7 +9700,7 @@
         <v>125</v>
       </c>
       <c r="G371" s="0">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="372">
@@ -9696,7 +9723,7 @@
         <v>122</v>
       </c>
       <c r="G372" s="0">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="373">
@@ -9719,7 +9746,7 @@
         <v>115</v>
       </c>
       <c r="G373" s="0">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="374">
@@ -9742,7 +9769,7 @@
         <v>102</v>
       </c>
       <c r="G374" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="375">
@@ -9765,7 +9792,7 @@
         <v>53</v>
       </c>
       <c r="G375" s="0">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376">
@@ -9788,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="G376" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="377">
@@ -9811,7 +9838,7 @@
         <v>75</v>
       </c>
       <c r="G377" s="0">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="378">
@@ -9834,7 +9861,7 @@
         <v>81</v>
       </c>
       <c r="G378" s="0">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="379">
@@ -9854,10 +9881,10 @@
         <v>11</v>
       </c>
       <c r="F379" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G379" s="0">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="380">
@@ -11481,16 +11508,16 @@
         <v>0</v>
       </c>
       <c r="D450" s="0">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E450" s="0">
-        <v>243.10000000000002</v>
+        <v>246.80000000000001</v>
       </c>
       <c r="F450" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G450" s="0">
-        <v>1796</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="451">
@@ -11501,19 +11528,19 @@
         <v>43948</v>
       </c>
       <c r="C451" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D451" s="0">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E451" s="0">
-        <v>243.10000000000002</v>
+        <v>246.80000000000001</v>
       </c>
       <c r="F451" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G451" s="0">
-        <v>1796</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="452">
@@ -11524,19 +11551,19 @@
         <v>43947</v>
       </c>
       <c r="C452" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D452" s="0">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E452" s="0">
-        <v>243.10000000000002</v>
+        <v>245.80000000000001</v>
       </c>
       <c r="F452" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G452" s="0">
-        <v>1796</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="453">
@@ -11556,10 +11583,10 @@
         <v>241.5</v>
       </c>
       <c r="F453" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G453" s="0">
-        <v>1787</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="454">
@@ -14057,16 +14084,16 @@
         <v>0</v>
       </c>
       <c r="D562" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E562" s="0">
-        <v>48</v>
+        <v>49.300000000000004</v>
       </c>
       <c r="F562" s="0">
         <v>0</v>
       </c>
       <c r="G562" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="563">
@@ -14077,19 +14104,19 @@
         <v>43948</v>
       </c>
       <c r="C563" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D563" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E563" s="0">
-        <v>48</v>
+        <v>49.300000000000004</v>
       </c>
       <c r="F563" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G563" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="564">
@@ -14109,10 +14136,10 @@
         <v>48</v>
       </c>
       <c r="F564" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G564" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="565">
@@ -14135,7 +14162,7 @@
         <v>4</v>
       </c>
       <c r="G565" s="0">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="566">
@@ -14158,7 +14185,7 @@
         <v>6</v>
       </c>
       <c r="G566" s="0">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="567">
@@ -14181,7 +14208,7 @@
         <v>2</v>
       </c>
       <c r="G567" s="0">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="568">
@@ -14204,7 +14231,7 @@
         <v>8</v>
       </c>
       <c r="G568" s="0">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="569">
@@ -14227,7 +14254,7 @@
         <v>16</v>
       </c>
       <c r="G569" s="0">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="570">
@@ -14250,7 +14277,7 @@
         <v>13</v>
       </c>
       <c r="G570" s="0">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="571">
@@ -14273,7 +14300,7 @@
         <v>15</v>
       </c>
       <c r="G571" s="0">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="572">
@@ -14296,7 +14323,7 @@
         <v>8</v>
       </c>
       <c r="G572" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="573">
@@ -14319,7 +14346,7 @@
         <v>10</v>
       </c>
       <c r="G573" s="0">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="574">
@@ -14342,7 +14369,7 @@
         <v>15</v>
       </c>
       <c r="G574" s="0">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="575">
@@ -14365,7 +14392,7 @@
         <v>15</v>
       </c>
       <c r="G575" s="0">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="576">
@@ -14388,7 +14415,7 @@
         <v>8</v>
       </c>
       <c r="G576" s="0">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="577">
@@ -14411,7 +14438,7 @@
         <v>6</v>
       </c>
       <c r="G577" s="0">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="578">
@@ -14434,7 +14461,7 @@
         <v>5</v>
       </c>
       <c r="G578" s="0">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="579">
@@ -14457,7 +14484,7 @@
         <v>8</v>
       </c>
       <c r="G579" s="0">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="580">
@@ -14480,7 +14507,7 @@
         <v>12</v>
       </c>
       <c r="G580" s="0">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="581">
@@ -14503,7 +14530,7 @@
         <v>6</v>
       </c>
       <c r="G581" s="0">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="582">
@@ -14526,7 +14553,7 @@
         <v>14</v>
       </c>
       <c r="G582" s="0">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="583">
@@ -14549,7 +14576,7 @@
         <v>5</v>
       </c>
       <c r="G583" s="0">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="584">
@@ -14572,7 +14599,7 @@
         <v>7</v>
       </c>
       <c r="G584" s="0">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="585">
@@ -14595,7 +14622,7 @@
         <v>8</v>
       </c>
       <c r="G585" s="0">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="586">
@@ -14618,7 +14645,7 @@
         <v>11</v>
       </c>
       <c r="G586" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="587">
@@ -14641,7 +14668,7 @@
         <v>18</v>
       </c>
       <c r="G587" s="0">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="588">
@@ -14664,7 +14691,7 @@
         <v>13</v>
       </c>
       <c r="G588" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="589">
@@ -14687,7 +14714,7 @@
         <v>10</v>
       </c>
       <c r="G589" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="590">
@@ -14710,7 +14737,7 @@
         <v>13</v>
       </c>
       <c r="G590" s="0">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="591">
@@ -14733,7 +14760,7 @@
         <v>12</v>
       </c>
       <c r="G591" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="592">
@@ -14756,7 +14783,7 @@
         <v>3</v>
       </c>
       <c r="G592" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="593">
@@ -14779,7 +14806,7 @@
         <v>11</v>
       </c>
       <c r="G593" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="594">
@@ -14802,7 +14829,7 @@
         <v>4</v>
       </c>
       <c r="G594" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="595">
@@ -14825,7 +14852,7 @@
         <v>9</v>
       </c>
       <c r="G595" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="596">
@@ -14848,7 +14875,7 @@
         <v>10</v>
       </c>
       <c r="G596" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="597">
@@ -14871,7 +14898,7 @@
         <v>6</v>
       </c>
       <c r="G597" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="598">
@@ -14894,7 +14921,7 @@
         <v>12</v>
       </c>
       <c r="G598" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="599">
@@ -14914,10 +14941,10 @@
         <v>8.2000000000000011</v>
       </c>
       <c r="F599" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G599" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="600">
@@ -16630,19 +16657,19 @@
         <v>43949</v>
       </c>
       <c r="C674" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D674" s="0">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E674" s="0">
-        <v>175.80000000000001</v>
+        <v>185.20000000000002</v>
       </c>
       <c r="F674" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G674" s="0">
-        <v>736</v>
+        <v>775</v>
       </c>
     </row>
     <row r="675">
@@ -16653,19 +16680,19 @@
         <v>43948</v>
       </c>
       <c r="C675" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D675" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E675" s="0">
-        <v>175.80000000000001</v>
+        <v>184.30000000000001</v>
       </c>
       <c r="F675" s="0">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G675" s="0">
-        <v>736</v>
+        <v>772</v>
       </c>
     </row>
     <row r="676">
@@ -16676,19 +16703,19 @@
         <v>43947</v>
       </c>
       <c r="C676" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D676" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E676" s="0">
-        <v>175.80000000000001</v>
+        <v>180.90000000000001</v>
       </c>
       <c r="F676" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G676" s="0">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="677">
@@ -16711,7 +16738,7 @@
         <v>15</v>
       </c>
       <c r="G677" s="0">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="678">
@@ -16734,7 +16761,7 @@
         <v>37</v>
       </c>
       <c r="G678" s="0">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="679">
@@ -16757,7 +16784,7 @@
         <v>35</v>
       </c>
       <c r="G679" s="0">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="680">
@@ -16780,7 +16807,7 @@
         <v>27</v>
       </c>
       <c r="G680" s="0">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="681">
@@ -16803,7 +16830,7 @@
         <v>34</v>
       </c>
       <c r="G681" s="0">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="682">
@@ -16826,7 +16853,7 @@
         <v>44</v>
       </c>
       <c r="G682" s="0">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="683">
@@ -16849,7 +16876,7 @@
         <v>24</v>
       </c>
       <c r="G683" s="0">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="684">
@@ -16872,7 +16899,7 @@
         <v>27</v>
       </c>
       <c r="G684" s="0">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="685">
@@ -16895,7 +16922,7 @@
         <v>35</v>
       </c>
       <c r="G685" s="0">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="686">
@@ -16918,7 +16945,7 @@
         <v>22</v>
       </c>
       <c r="G686" s="0">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="687">
@@ -16941,7 +16968,7 @@
         <v>31</v>
       </c>
       <c r="G687" s="0">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="688">
@@ -16961,10 +16988,10 @@
         <v>75.100000000000009</v>
       </c>
       <c r="F688" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G688" s="0">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="689">
@@ -16987,7 +17014,7 @@
         <v>11</v>
       </c>
       <c r="G689" s="0">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="690">
@@ -17010,7 +17037,7 @@
         <v>21</v>
       </c>
       <c r="G690" s="0">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="691">
@@ -17033,7 +17060,7 @@
         <v>28</v>
       </c>
       <c r="G691" s="0">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="692">
@@ -17056,7 +17083,7 @@
         <v>11</v>
       </c>
       <c r="G692" s="0">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="693">
@@ -17079,7 +17106,7 @@
         <v>18</v>
       </c>
       <c r="G693" s="0">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="694">
@@ -17102,7 +17129,7 @@
         <v>20</v>
       </c>
       <c r="G694" s="0">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="695">
@@ -17125,7 +17152,7 @@
         <v>18</v>
       </c>
       <c r="G695" s="0">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="696">
@@ -17148,7 +17175,7 @@
         <v>19</v>
       </c>
       <c r="G696" s="0">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="697">
@@ -17171,7 +17198,7 @@
         <v>8</v>
       </c>
       <c r="G697" s="0">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="698">
@@ -17194,7 +17221,7 @@
         <v>7</v>
       </c>
       <c r="G698" s="0">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="699">
@@ -17217,7 +17244,7 @@
         <v>12</v>
       </c>
       <c r="G699" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="700">
@@ -17240,7 +17267,7 @@
         <v>12</v>
       </c>
       <c r="G700" s="0">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="701">
@@ -17263,7 +17290,7 @@
         <v>7</v>
       </c>
       <c r="G701" s="0">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="702">
@@ -17286,7 +17313,7 @@
         <v>14</v>
       </c>
       <c r="G702" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="703">
@@ -17309,7 +17336,7 @@
         <v>11</v>
       </c>
       <c r="G703" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="704">
@@ -17332,7 +17359,7 @@
         <v>9</v>
       </c>
       <c r="G704" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="705">
@@ -17355,7 +17382,7 @@
         <v>8</v>
       </c>
       <c r="G705" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="706">
@@ -17378,7 +17405,7 @@
         <v>14</v>
       </c>
       <c r="G706" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="707">
@@ -17401,7 +17428,7 @@
         <v>10</v>
       </c>
       <c r="G707" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="708">
@@ -17424,7 +17451,7 @@
         <v>13</v>
       </c>
       <c r="G708" s="0">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="709">
@@ -17447,7 +17474,7 @@
         <v>14</v>
       </c>
       <c r="G709" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="710">
@@ -17470,7 +17497,7 @@
         <v>14</v>
       </c>
       <c r="G710" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="711">
@@ -17493,7 +17520,7 @@
         <v>4</v>
       </c>
       <c r="G711" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="712">
@@ -17516,7 +17543,7 @@
         <v>5</v>
       </c>
       <c r="G712" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="713">
@@ -17539,7 +17566,7 @@
         <v>10</v>
       </c>
       <c r="G713" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="714">
@@ -17562,7 +17589,7 @@
         <v>11</v>
       </c>
       <c r="G714" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="715">
@@ -17582,10 +17609,10 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="F715" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G715" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="716">
@@ -19209,16 +19236,16 @@
         <v>0</v>
       </c>
       <c r="D786" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E786" s="0">
-        <v>252.80000000000001</v>
+        <v>263.30000000000001</v>
       </c>
       <c r="F786" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G786" s="0">
-        <v>758</v>
+        <v>794</v>
       </c>
     </row>
     <row r="787">
@@ -19229,19 +19256,19 @@
         <v>43948</v>
       </c>
       <c r="C787" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D787" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E787" s="0">
-        <v>252.80000000000001</v>
+        <v>263.30000000000001</v>
       </c>
       <c r="F787" s="0">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G787" s="0">
-        <v>758</v>
+        <v>790</v>
       </c>
     </row>
     <row r="788">
@@ -19252,19 +19279,19 @@
         <v>43947</v>
       </c>
       <c r="C788" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D788" s="0">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E788" s="0">
-        <v>252.80000000000001</v>
+        <v>256</v>
       </c>
       <c r="F788" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G788" s="0">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="789">
@@ -21785,16 +21812,16 @@
         <v>0</v>
       </c>
       <c r="D898" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E898" s="0">
-        <v>142</v>
+        <v>145.90000000000001</v>
       </c>
       <c r="F898" s="0">
         <v>0</v>
       </c>
       <c r="G898" s="0">
-        <v>664</v>
+        <v>688</v>
       </c>
     </row>
     <row r="899">
@@ -21805,19 +21832,19 @@
         <v>43948</v>
       </c>
       <c r="C899" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D899" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E899" s="0">
-        <v>142</v>
+        <v>145.90000000000001</v>
       </c>
       <c r="F899" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G899" s="0">
-        <v>664</v>
+        <v>688</v>
       </c>
     </row>
     <row r="900">
@@ -21837,10 +21864,10 @@
         <v>142</v>
       </c>
       <c r="F900" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G900" s="0">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="901">
@@ -21863,7 +21890,7 @@
         <v>11</v>
       </c>
       <c r="G901" s="0">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="902">
@@ -21886,7 +21913,7 @@
         <v>22</v>
       </c>
       <c r="G902" s="0">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="903">
@@ -21909,7 +21936,7 @@
         <v>17</v>
       </c>
       <c r="G903" s="0">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="904">
@@ -21932,7 +21959,7 @@
         <v>28</v>
       </c>
       <c r="G904" s="0">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="905">
@@ -21952,10 +21979,10 @@
         <v>131.80000000000001</v>
       </c>
       <c r="F905" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G905" s="0">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="906">
@@ -21978,7 +22005,7 @@
         <v>30</v>
       </c>
       <c r="G906" s="0">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="907">
@@ -22001,7 +22028,7 @@
         <v>5</v>
       </c>
       <c r="G907" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="908">
@@ -22024,7 +22051,7 @@
         <v>9</v>
       </c>
       <c r="G908" s="0">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="909">
@@ -22047,7 +22074,7 @@
         <v>30</v>
       </c>
       <c r="G909" s="0">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="910">
@@ -22070,7 +22097,7 @@
         <v>19</v>
       </c>
       <c r="G910" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="911">
@@ -22093,7 +22120,7 @@
         <v>21</v>
       </c>
       <c r="G911" s="0">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="912">
@@ -22113,10 +22140,10 @@
         <v>93.800000000000011</v>
       </c>
       <c r="F912" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G912" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="913">
@@ -24361,16 +24388,16 @@
         <v>0</v>
       </c>
       <c r="D1010" s="0">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E1010" s="0">
-        <v>175.60000000000002</v>
+        <v>184.40000000000001</v>
       </c>
       <c r="F1010" s="0">
         <v>0</v>
       </c>
       <c r="G1010" s="0">
-        <v>661</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1011">
@@ -24381,19 +24408,19 @@
         <v>43948</v>
       </c>
       <c r="C1011" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1011" s="0">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E1011" s="0">
-        <v>175.60000000000002</v>
+        <v>184.40000000000001</v>
       </c>
       <c r="F1011" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G1011" s="0">
-        <v>661</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1012">
@@ -24404,19 +24431,19 @@
         <v>43947</v>
       </c>
       <c r="C1012" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1012" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E1012" s="0">
-        <v>175.60000000000002</v>
+        <v>180.40000000000001</v>
       </c>
       <c r="F1012" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G1012" s="0">
-        <v>661</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1013">
@@ -24436,10 +24463,10 @@
         <v>173.10000000000002</v>
       </c>
       <c r="F1013" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1013" s="0">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1014">
@@ -26937,16 +26964,16 @@
         <v>0</v>
       </c>
       <c r="D1122" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1122" s="0">
-        <v>114.30000000000001</v>
+        <v>115.80000000000001</v>
       </c>
       <c r="F1122" s="0">
         <v>0</v>
       </c>
       <c r="G1122" s="0">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1123">
@@ -26957,19 +26984,19 @@
         <v>43948</v>
       </c>
       <c r="C1123" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1123" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1123" s="0">
-        <v>114.30000000000001</v>
+        <v>115.80000000000001</v>
       </c>
       <c r="F1123" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G1123" s="0">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1124">
@@ -26989,10 +27016,10 @@
         <v>114.30000000000001</v>
       </c>
       <c r="F1124" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1124" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="1125">
@@ -27012,7 +27039,7 @@
         <v>111.5</v>
       </c>
       <c r="F1125" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1125" s="0">
         <v>300</v>
@@ -27038,7 +27065,7 @@
         <v>8</v>
       </c>
       <c r="G1126" s="0">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1127">
@@ -27061,7 +27088,7 @@
         <v>20</v>
       </c>
       <c r="G1127" s="0">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1128">
@@ -27084,7 +27111,7 @@
         <v>22</v>
       </c>
       <c r="G1128" s="0">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1129">
@@ -27107,7 +27134,7 @@
         <v>7</v>
       </c>
       <c r="G1129" s="0">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1130">
@@ -27130,7 +27157,7 @@
         <v>16</v>
       </c>
       <c r="G1130" s="0">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1131">
@@ -27153,7 +27180,7 @@
         <v>5</v>
       </c>
       <c r="G1131" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1132">
@@ -27176,7 +27203,7 @@
         <v>9</v>
       </c>
       <c r="G1132" s="0">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1133">
@@ -27199,7 +27226,7 @@
         <v>17</v>
       </c>
       <c r="G1133" s="0">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1134">
@@ -27222,7 +27249,7 @@
         <v>12</v>
       </c>
       <c r="G1134" s="0">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1135">
@@ -27245,7 +27272,7 @@
         <v>9</v>
       </c>
       <c r="G1135" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1136">
@@ -27268,7 +27295,7 @@
         <v>7</v>
       </c>
       <c r="G1136" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1137">
@@ -27291,7 +27318,7 @@
         <v>10</v>
       </c>
       <c r="G1137" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1138">
@@ -27314,7 +27341,7 @@
         <v>6</v>
       </c>
       <c r="G1138" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1139">
@@ -27337,7 +27364,7 @@
         <v>5</v>
       </c>
       <c r="G1139" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1140">
@@ -27360,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="G1140" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1141">
@@ -27380,10 +27407,10 @@
         <v>38.600000000000001</v>
       </c>
       <c r="F1141" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1141" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1142">
@@ -29513,16 +29540,16 @@
         <v>0</v>
       </c>
       <c r="D1234" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E1234" s="0">
-        <v>397.10000000000002</v>
+        <v>413.70000000000005</v>
       </c>
       <c r="F1234" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1234" s="0">
-        <v>652</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1235">
@@ -29533,19 +29560,19 @@
         <v>43948</v>
       </c>
       <c r="C1235" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D1235" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E1235" s="0">
-        <v>397.10000000000002</v>
+        <v>413.70000000000005</v>
       </c>
       <c r="F1235" s="0">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G1235" s="0">
-        <v>652</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1236">
@@ -29556,19 +29583,19 @@
         <v>43947</v>
       </c>
       <c r="C1236" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1236" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E1236" s="0">
-        <v>397.10000000000002</v>
+        <v>400.40000000000003</v>
       </c>
       <c r="F1236" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1236" s="0">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="1237">
@@ -29582,16 +29609,16 @@
         <v>3</v>
       </c>
       <c r="D1237" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E1237" s="0">
-        <v>392.10000000000002</v>
+        <v>393.80000000000001</v>
       </c>
       <c r="F1237" s="0">
         <v>15</v>
       </c>
       <c r="G1237" s="0">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1238">
@@ -29605,16 +29632,16 @@
         <v>3</v>
       </c>
       <c r="D1238" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1238" s="0">
-        <v>387.20000000000005</v>
+        <v>388.80000000000001</v>
       </c>
       <c r="F1238" s="0">
         <v>20</v>
       </c>
       <c r="G1238" s="0">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1239">
@@ -29628,16 +29655,16 @@
         <v>8</v>
       </c>
       <c r="D1239" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1239" s="0">
-        <v>382.20000000000005</v>
+        <v>383.80000000000001</v>
       </c>
       <c r="F1239" s="0">
         <v>28</v>
       </c>
       <c r="G1239" s="0">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="1240">
@@ -29651,16 +29678,16 @@
         <v>7</v>
       </c>
       <c r="D1240" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E1240" s="0">
-        <v>368.90000000000003</v>
+        <v>370.5</v>
       </c>
       <c r="F1240" s="0">
         <v>24</v>
       </c>
       <c r="G1240" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1241">
@@ -29674,16 +29701,16 @@
         <v>11</v>
       </c>
       <c r="D1241" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E1241" s="0">
-        <v>357.20000000000005</v>
+        <v>358.90000000000003</v>
       </c>
       <c r="F1241" s="0">
         <v>36</v>
       </c>
       <c r="G1241" s="0">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1242">
@@ -29697,16 +29724,16 @@
         <v>7</v>
       </c>
       <c r="D1242" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E1242" s="0">
-        <v>339</v>
+        <v>340.60000000000002</v>
       </c>
       <c r="F1242" s="0">
         <v>20</v>
       </c>
       <c r="G1242" s="0">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1243">
@@ -29720,16 +29747,16 @@
         <v>3</v>
       </c>
       <c r="D1243" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E1243" s="0">
-        <v>327.30000000000001</v>
+        <v>329</v>
       </c>
       <c r="F1243" s="0">
         <v>11</v>
       </c>
       <c r="G1243" s="0">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1244">
@@ -29743,16 +29770,16 @@
         <v>5</v>
       </c>
       <c r="D1244" s="0">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E1244" s="0">
-        <v>322.40000000000003</v>
+        <v>324</v>
       </c>
       <c r="F1244" s="0">
         <v>13</v>
       </c>
       <c r="G1244" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1245">
@@ -29766,16 +29793,16 @@
         <v>14</v>
       </c>
       <c r="D1245" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E1245" s="0">
-        <v>314</v>
+        <v>315.70000000000005</v>
       </c>
       <c r="F1245" s="0">
         <v>30</v>
       </c>
       <c r="G1245" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1246">
@@ -29789,16 +29816,16 @@
         <v>15</v>
       </c>
       <c r="D1246" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E1246" s="0">
-        <v>290.80000000000001</v>
+        <v>292.40000000000003</v>
       </c>
       <c r="F1246" s="0">
         <v>28</v>
       </c>
       <c r="G1246" s="0">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1247">
@@ -29812,16 +29839,16 @@
         <v>18</v>
       </c>
       <c r="D1247" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E1247" s="0">
-        <v>265.90000000000003</v>
+        <v>267.5</v>
       </c>
       <c r="F1247" s="0">
         <v>32</v>
       </c>
       <c r="G1247" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1248">
@@ -29835,16 +29862,16 @@
         <v>6</v>
       </c>
       <c r="D1248" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1248" s="0">
-        <v>235.90000000000001</v>
+        <v>237.60000000000002</v>
       </c>
       <c r="F1248" s="0">
         <v>13</v>
       </c>
       <c r="G1248" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1249">
@@ -29858,16 +29885,16 @@
         <v>2</v>
       </c>
       <c r="D1249" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1249" s="0">
-        <v>226</v>
+        <v>227.60000000000002</v>
       </c>
       <c r="F1249" s="0">
         <v>7</v>
       </c>
       <c r="G1249" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1250">
@@ -29881,16 +29908,16 @@
         <v>7</v>
       </c>
       <c r="D1250" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1250" s="0">
-        <v>222.70000000000002</v>
+        <v>224.30000000000001</v>
       </c>
       <c r="F1250" s="0">
         <v>15</v>
       </c>
       <c r="G1250" s="0">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1251">
@@ -29904,16 +29931,16 @@
         <v>4</v>
       </c>
       <c r="D1251" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1251" s="0">
-        <v>211</v>
+        <v>212.70000000000002</v>
       </c>
       <c r="F1251" s="0">
         <v>10</v>
       </c>
       <c r="G1251" s="0">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1252">
@@ -29927,16 +29954,16 @@
         <v>4</v>
       </c>
       <c r="D1252" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1252" s="0">
-        <v>204.40000000000001</v>
+        <v>206</v>
       </c>
       <c r="F1252" s="0">
         <v>11</v>
       </c>
       <c r="G1252" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="1253">
@@ -29950,16 +29977,16 @@
         <v>9</v>
       </c>
       <c r="D1253" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1253" s="0">
-        <v>197.70000000000002</v>
+        <v>199.40000000000001</v>
       </c>
       <c r="F1253" s="0">
         <v>20</v>
       </c>
       <c r="G1253" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1254">
@@ -29973,16 +30000,16 @@
         <v>10</v>
       </c>
       <c r="D1254" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1254" s="0">
-        <v>182.80000000000001</v>
+        <v>184.40000000000001</v>
       </c>
       <c r="F1254" s="0">
         <v>27</v>
       </c>
       <c r="G1254" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1255">
@@ -29993,19 +30020,19 @@
         <v>43928</v>
       </c>
       <c r="C1255" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1255" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1255" s="0">
-        <v>166.20000000000002</v>
+        <v>167.80000000000001</v>
       </c>
       <c r="F1255" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1255" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1256">
@@ -32089,16 +32116,16 @@
         <v>0</v>
       </c>
       <c r="D1346" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E1346" s="0">
-        <v>247.5</v>
+        <v>251.70000000000002</v>
       </c>
       <c r="F1346" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1346" s="0">
-        <v>729</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1347">
@@ -32109,19 +32136,19 @@
         <v>43948</v>
       </c>
       <c r="C1347" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1347" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E1347" s="0">
-        <v>247.5</v>
+        <v>251.70000000000002</v>
       </c>
       <c r="F1347" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1347" s="0">
-        <v>728</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1348">
@@ -32135,16 +32162,16 @@
         <v>0</v>
       </c>
       <c r="D1348" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1348" s="0">
-        <v>247.5</v>
+        <v>248.60000000000002</v>
       </c>
       <c r="F1348" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1348" s="0">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1349">
@@ -32155,16 +32182,16 @@
         <v>43946</v>
       </c>
       <c r="C1349" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1349" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1349" s="0">
-        <v>247.5</v>
+        <v>248.60000000000002</v>
       </c>
       <c r="F1349" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1349" s="0">
         <v>726</v>
@@ -32190,7 +32217,7 @@
         <v>19</v>
       </c>
       <c r="G1350" s="0">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1351">
@@ -32213,7 +32240,7 @@
         <v>8</v>
       </c>
       <c r="G1351" s="0">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="1352">
@@ -32236,7 +32263,7 @@
         <v>25</v>
       </c>
       <c r="G1352" s="0">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="1353">
@@ -32259,7 +32286,7 @@
         <v>19</v>
       </c>
       <c r="G1353" s="0">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1354">
@@ -32282,7 +32309,7 @@
         <v>24</v>
       </c>
       <c r="G1354" s="0">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1355">
@@ -32305,7 +32332,7 @@
         <v>8</v>
       </c>
       <c r="G1355" s="0">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1356">
@@ -32328,7 +32355,7 @@
         <v>16</v>
       </c>
       <c r="G1356" s="0">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1357">
@@ -32351,7 +32378,7 @@
         <v>19</v>
       </c>
       <c r="G1357" s="0">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1358">
@@ -32374,7 +32401,7 @@
         <v>20</v>
       </c>
       <c r="G1358" s="0">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1359">
@@ -32397,7 +32424,7 @@
         <v>21</v>
       </c>
       <c r="G1359" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1360">
@@ -32420,7 +32447,7 @@
         <v>14</v>
       </c>
       <c r="G1360" s="0">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1361">
@@ -32443,7 +32470,7 @@
         <v>12</v>
       </c>
       <c r="G1361" s="0">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="1362">
@@ -32466,7 +32493,7 @@
         <v>9</v>
       </c>
       <c r="G1362" s="0">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="1363">
@@ -32489,7 +32516,7 @@
         <v>6</v>
       </c>
       <c r="G1363" s="0">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1364">
@@ -32512,7 +32539,7 @@
         <v>22</v>
       </c>
       <c r="G1364" s="0">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1365">
@@ -32535,7 +32562,7 @@
         <v>18</v>
       </c>
       <c r="G1365" s="0">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1366">
@@ -32555,10 +32582,10 @@
         <v>166.80000000000001</v>
       </c>
       <c r="F1366" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1366" s="0">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1367">
@@ -34665,16 +34692,16 @@
         <v>0</v>
       </c>
       <c r="D1458" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E1458" s="0">
-        <v>338</v>
+        <v>342.20000000000005</v>
       </c>
       <c r="F1458" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1458" s="0">
-        <v>1337</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1459">
@@ -34685,19 +34712,19 @@
         <v>43948</v>
       </c>
       <c r="C1459" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1459" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E1459" s="0">
-        <v>338</v>
+        <v>342.20000000000005</v>
       </c>
       <c r="F1459" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G1459" s="0">
-        <v>1337</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1460">
@@ -34708,19 +34735,19 @@
         <v>43947</v>
       </c>
       <c r="C1460" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1460" s="0">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E1460" s="0">
-        <v>338</v>
+        <v>340.10000000000002</v>
       </c>
       <c r="F1460" s="0">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G1460" s="0">
-        <v>1337</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1461">
@@ -34740,7 +34767,7 @@
         <v>335.90000000000003</v>
       </c>
       <c r="F1461" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1461" s="0">
         <v>1316</v>
@@ -34766,7 +34793,7 @@
         <v>45</v>
       </c>
       <c r="G1462" s="0">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1463">
@@ -34789,7 +34816,7 @@
         <v>35</v>
       </c>
       <c r="G1463" s="0">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1464">
@@ -34812,7 +34839,7 @@
         <v>42</v>
       </c>
       <c r="G1464" s="0">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1465">
@@ -34835,7 +34862,7 @@
         <v>36</v>
       </c>
       <c r="G1465" s="0">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1466">
@@ -34858,7 +34885,7 @@
         <v>50</v>
       </c>
       <c r="G1466" s="0">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1467">
@@ -34881,7 +34908,7 @@
         <v>27</v>
       </c>
       <c r="G1467" s="0">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1468">
@@ -34904,7 +34931,7 @@
         <v>28</v>
       </c>
       <c r="G1468" s="0">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1469">
@@ -34927,7 +34954,7 @@
         <v>45</v>
       </c>
       <c r="G1469" s="0">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1470">
@@ -34947,10 +34974,10 @@
         <v>254</v>
       </c>
       <c r="F1470" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1470" s="0">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1471">
@@ -37241,16 +37268,16 @@
         <v>0</v>
       </c>
       <c r="D1570" s="0">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="E1570" s="0">
-        <v>442.90000000000003</v>
+        <v>446.20000000000005</v>
       </c>
       <c r="F1570" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G1570" s="0">
-        <v>1675</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1571">
@@ -37261,19 +37288,19 @@
         <v>43948</v>
       </c>
       <c r="C1571" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1571" s="0">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="E1571" s="0">
-        <v>442.90000000000003</v>
+        <v>446.20000000000005</v>
       </c>
       <c r="F1571" s="0">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G1571" s="0">
-        <v>1675</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1572">
@@ -37284,19 +37311,19 @@
         <v>43947</v>
       </c>
       <c r="C1572" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1572" s="0">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E1572" s="0">
-        <v>442.90000000000003</v>
+        <v>443.60000000000002</v>
       </c>
       <c r="F1572" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G1572" s="0">
-        <v>1672</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1573">
@@ -37319,7 +37346,7 @@
         <v>26</v>
       </c>
       <c r="G1573" s="0">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1574">
@@ -37339,10 +37366,10 @@
         <v>437.70000000000005</v>
       </c>
       <c r="F1574" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1574" s="0">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1575">
@@ -39817,14 +39844,14 @@
         <v>0</v>
       </c>
       <c r="D1682" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1682" s="0"/>
       <c r="F1682" s="0">
         <v>0</v>
       </c>
       <c r="G1682" s="0">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1683">
@@ -39835,17 +39862,17 @@
         <v>43948</v>
       </c>
       <c r="C1683" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1683" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1683" s="0"/>
       <c r="F1683" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1683" s="0">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1684">
@@ -39863,10 +39890,10 @@
       </c>
       <c r="E1684" s="0"/>
       <c r="F1684" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1684" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1685">
@@ -42169,16 +42196,16 @@
         <v>0</v>
       </c>
       <c r="D1794" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E1794" s="0">
-        <v>164.70000000000002</v>
+        <v>167.90000000000001</v>
       </c>
       <c r="F1794" s="0">
         <v>0</v>
       </c>
       <c r="G1794" s="0">
-        <v>904</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1795">
@@ -42189,19 +42216,19 @@
         <v>43948</v>
       </c>
       <c r="C1795" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1795" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E1795" s="0">
-        <v>164.70000000000002</v>
+        <v>167.90000000000001</v>
       </c>
       <c r="F1795" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1795" s="0">
-        <v>904</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1796">
@@ -42221,10 +42248,10 @@
         <v>164.70000000000002</v>
       </c>
       <c r="F1796" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1796" s="0">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1797">
@@ -42247,7 +42274,7 @@
         <v>21</v>
       </c>
       <c r="G1797" s="0">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1798">
@@ -42270,7 +42297,7 @@
         <v>31</v>
       </c>
       <c r="G1798" s="0">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1799">
@@ -42293,7 +42320,7 @@
         <v>36</v>
       </c>
       <c r="G1799" s="0">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1800">
@@ -42316,7 +42343,7 @@
         <v>34</v>
       </c>
       <c r="G1800" s="0">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1801">
@@ -42339,7 +42366,7 @@
         <v>37</v>
       </c>
       <c r="G1801" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1802">
@@ -42362,7 +42389,7 @@
         <v>25</v>
       </c>
       <c r="G1802" s="0">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="1803">
@@ -42385,7 +42412,7 @@
         <v>30</v>
       </c>
       <c r="G1803" s="0">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="1804">
@@ -42408,7 +42435,7 @@
         <v>22</v>
       </c>
       <c r="G1804" s="0">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1805">
@@ -42431,7 +42458,7 @@
         <v>37</v>
       </c>
       <c r="G1805" s="0">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1806">
@@ -42451,10 +42478,10 @@
         <v>122.30000000000001</v>
       </c>
       <c r="F1806" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1806" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="1807">
@@ -44745,16 +44772,16 @@
         <v>0</v>
       </c>
       <c r="D1906" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1906" s="0">
-        <v>125.30000000000001</v>
+        <v>127.60000000000001</v>
       </c>
       <c r="F1906" s="0">
         <v>1</v>
       </c>
       <c r="G1906" s="0">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1907">
@@ -44765,19 +44792,19 @@
         <v>43948</v>
       </c>
       <c r="C1907" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1907" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1907" s="0">
-        <v>125.30000000000001</v>
+        <v>127.60000000000001</v>
       </c>
       <c r="F1907" s="0">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G1907" s="0">
-        <v>590</v>
+        <v>606</v>
       </c>
     </row>
     <row r="1908">
@@ -44797,10 +44824,10 @@
         <v>124.60000000000001</v>
       </c>
       <c r="F1908" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1908" s="0">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1909">
@@ -44820,7 +44847,7 @@
         <v>123.80000000000001</v>
       </c>
       <c r="F1909" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1909" s="0">
         <v>588</v>
@@ -44846,7 +44873,7 @@
         <v>16</v>
       </c>
       <c r="G1910" s="0">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1911">
@@ -44869,7 +44896,7 @@
         <v>18</v>
       </c>
       <c r="G1911" s="0">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1912">
@@ -44892,7 +44919,7 @@
         <v>18</v>
       </c>
       <c r="G1912" s="0">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="1913">
@@ -44915,7 +44942,7 @@
         <v>18</v>
       </c>
       <c r="G1913" s="0">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="1914">
@@ -44938,7 +44965,7 @@
         <v>25</v>
       </c>
       <c r="G1914" s="0">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1915">
@@ -44961,7 +44988,7 @@
         <v>11</v>
       </c>
       <c r="G1915" s="0">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1916">
@@ -44984,7 +45011,7 @@
         <v>27</v>
       </c>
       <c r="G1916" s="0">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1917">
@@ -45007,7 +45034,7 @@
         <v>8</v>
       </c>
       <c r="G1917" s="0">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1918">
@@ -45030,7 +45057,7 @@
         <v>9</v>
       </c>
       <c r="G1918" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="1919">
@@ -45053,7 +45080,7 @@
         <v>18</v>
       </c>
       <c r="G1919" s="0">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1920">
@@ -45076,7 +45103,7 @@
         <v>15</v>
       </c>
       <c r="G1920" s="0">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1921">
@@ -45099,7 +45126,7 @@
         <v>18</v>
       </c>
       <c r="G1921" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="1922">
@@ -45122,7 +45149,7 @@
         <v>6</v>
       </c>
       <c r="G1922" s="0">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1923">
@@ -45145,7 +45172,7 @@
         <v>10</v>
       </c>
       <c r="G1923" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1924">
@@ -45168,7 +45195,7 @@
         <v>16</v>
       </c>
       <c r="G1924" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1925">
@@ -45191,7 +45218,7 @@
         <v>27</v>
       </c>
       <c r="G1925" s="0">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="1926">
@@ -45214,7 +45241,7 @@
         <v>15</v>
       </c>
       <c r="G1926" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1927">
@@ -45237,7 +45264,7 @@
         <v>14</v>
       </c>
       <c r="G1927" s="0">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1928">
@@ -45260,7 +45287,7 @@
         <v>16</v>
       </c>
       <c r="G1928" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1929">
@@ -45283,7 +45310,7 @@
         <v>11</v>
       </c>
       <c r="G1929" s="0">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1930">
@@ -45306,7 +45333,7 @@
         <v>19</v>
       </c>
       <c r="G1930" s="0">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1931">
@@ -45329,7 +45356,7 @@
         <v>15</v>
       </c>
       <c r="G1931" s="0">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1932">
@@ -45352,7 +45379,7 @@
         <v>12</v>
       </c>
       <c r="G1932" s="0">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1933">
@@ -45375,7 +45402,7 @@
         <v>11</v>
       </c>
       <c r="G1933" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1934">
@@ -45398,7 +45425,7 @@
         <v>22</v>
       </c>
       <c r="G1934" s="0">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1935">
@@ -45421,7 +45448,7 @@
         <v>25</v>
       </c>
       <c r="G1935" s="0">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1936">
@@ -45444,7 +45471,7 @@
         <v>5</v>
       </c>
       <c r="G1936" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1937">
@@ -45467,7 +45494,7 @@
         <v>5</v>
       </c>
       <c r="G1937" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1938">
@@ -45490,7 +45517,7 @@
         <v>12</v>
       </c>
       <c r="G1938" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1939">
@@ -45513,7 +45540,7 @@
         <v>21</v>
       </c>
       <c r="G1939" s="0">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1940">
@@ -45533,10 +45560,10 @@
         <v>13.600000000000001</v>
       </c>
       <c r="F1940" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1940" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1941">
@@ -47318,19 +47345,19 @@
         <v>43949</v>
       </c>
       <c r="C2018" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2018" s="0">
-        <v>1060</v>
+        <v>1085</v>
       </c>
       <c r="E2018" s="0">
-        <v>441.40000000000003</v>
+        <v>451.80000000000001</v>
       </c>
       <c r="F2018" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2018" s="0">
-        <v>2787</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="2019">
@@ -47341,19 +47368,19 @@
         <v>43948</v>
       </c>
       <c r="C2019" s="0">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2019" s="0">
-        <v>1060</v>
+        <v>1084</v>
       </c>
       <c r="E2019" s="0">
-        <v>441.40000000000003</v>
+        <v>451.40000000000003</v>
       </c>
       <c r="F2019" s="0">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="G2019" s="0">
-        <v>2787</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="2020">
@@ -47364,19 +47391,19 @@
         <v>43947</v>
       </c>
       <c r="C2020" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2020" s="0">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="E2020" s="0">
-        <v>441</v>
+        <v>442.70000000000005</v>
       </c>
       <c r="F2020" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2020" s="0">
-        <v>2784</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="2021">
@@ -47390,16 +47417,16 @@
         <v>14</v>
       </c>
       <c r="D2021" s="0">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E2021" s="0">
-        <v>437.70000000000005</v>
+        <v>438.10000000000002</v>
       </c>
       <c r="F2021" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2021" s="0">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="2022">
@@ -47413,10 +47440,10 @@
         <v>33</v>
       </c>
       <c r="D2022" s="0">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E2022" s="0">
-        <v>431.80000000000001</v>
+        <v>432.30000000000001</v>
       </c>
       <c r="F2022" s="0">
         <v>139</v>
@@ -47436,10 +47463,10 @@
         <v>21</v>
       </c>
       <c r="D2023" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E2023" s="0">
-        <v>418.10000000000002</v>
+        <v>418.5</v>
       </c>
       <c r="F2023" s="0">
         <v>91</v>
@@ -47459,13 +47486,13 @@
         <v>42</v>
       </c>
       <c r="D2024" s="0">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E2024" s="0">
-        <v>409.40000000000003</v>
+        <v>409.80000000000001</v>
       </c>
       <c r="F2024" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2024" s="0">
         <v>2424</v>
@@ -47482,16 +47509,16 @@
         <v>29</v>
       </c>
       <c r="D2025" s="0">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E2025" s="0">
-        <v>391.90000000000003</v>
+        <v>392.30000000000001</v>
       </c>
       <c r="F2025" s="0">
         <v>85</v>
       </c>
       <c r="G2025" s="0">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="2026">
@@ -47505,16 +47532,16 @@
         <v>34</v>
       </c>
       <c r="D2026" s="0">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E2026" s="0">
-        <v>379.80000000000001</v>
+        <v>380.20000000000005</v>
       </c>
       <c r="F2026" s="0">
         <v>81</v>
       </c>
       <c r="G2026" s="0">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="2027">
@@ -47528,16 +47555,16 @@
         <v>23</v>
       </c>
       <c r="D2027" s="0">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E2027" s="0">
-        <v>365.60000000000002</v>
+        <v>366.10000000000002</v>
       </c>
       <c r="F2027" s="0">
         <v>61</v>
       </c>
       <c r="G2027" s="0">
-        <v>2160</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="2028">
@@ -47551,16 +47578,16 @@
         <v>22</v>
       </c>
       <c r="D2028" s="0">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E2028" s="0">
-        <v>356.10000000000002</v>
+        <v>356.5</v>
       </c>
       <c r="F2028" s="0">
         <v>72</v>
       </c>
       <c r="G2028" s="0">
-        <v>2099</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="2029">
@@ -47574,16 +47601,16 @@
         <v>43</v>
       </c>
       <c r="D2029" s="0">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E2029" s="0">
-        <v>346.90000000000003</v>
+        <v>347.30000000000001</v>
       </c>
       <c r="F2029" s="0">
         <v>106</v>
       </c>
       <c r="G2029" s="0">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="2030">
@@ -47597,16 +47624,16 @@
         <v>57</v>
       </c>
       <c r="D2030" s="0">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E2030" s="0">
-        <v>329</v>
+        <v>329.40000000000003</v>
       </c>
       <c r="F2030" s="0">
         <v>131</v>
       </c>
       <c r="G2030" s="0">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="2031">
@@ -47620,16 +47647,16 @@
         <v>46</v>
       </c>
       <c r="D2031" s="0">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E2031" s="0">
-        <v>305.30000000000001</v>
+        <v>305.69999999999999</v>
       </c>
       <c r="F2031" s="0">
         <v>92</v>
       </c>
       <c r="G2031" s="0">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2032">
@@ -47643,16 +47670,16 @@
         <v>28</v>
       </c>
       <c r="D2032" s="0">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E2032" s="0">
-        <v>286.10000000000002</v>
+        <v>286.5</v>
       </c>
       <c r="F2032" s="0">
         <v>55</v>
       </c>
       <c r="G2032" s="0">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="2033">
@@ -47666,16 +47693,16 @@
         <v>31</v>
       </c>
       <c r="D2033" s="0">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E2033" s="0">
-        <v>274.40000000000003</v>
+        <v>274.80000000000001</v>
       </c>
       <c r="F2033" s="0">
         <v>76</v>
       </c>
       <c r="G2033" s="0">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="2034">
@@ -47689,16 +47716,16 @@
         <v>21</v>
       </c>
       <c r="D2034" s="0">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E2034" s="0">
-        <v>261.5</v>
+        <v>261.90000000000003</v>
       </c>
       <c r="F2034" s="0">
         <v>51</v>
       </c>
       <c r="G2034" s="0">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="2035">
@@ -47709,19 +47736,19 @@
         <v>43932</v>
       </c>
       <c r="C2035" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2035" s="0">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E2035" s="0">
-        <v>252.80000000000001</v>
+        <v>253.20000000000002</v>
       </c>
       <c r="F2035" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2035" s="0">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2036">
@@ -47735,16 +47762,16 @@
         <v>32</v>
       </c>
       <c r="D2036" s="0">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E2036" s="0">
-        <v>238.60000000000002</v>
+        <v>239.5</v>
       </c>
       <c r="F2036" s="0">
         <v>66</v>
       </c>
       <c r="G2036" s="0">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="2037">
@@ -47758,16 +47785,16 @@
         <v>42</v>
       </c>
       <c r="D2037" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E2037" s="0">
-        <v>225.30000000000001</v>
+        <v>226.10000000000002</v>
       </c>
       <c r="F2037" s="0">
         <v>95</v>
       </c>
       <c r="G2037" s="0">
-        <v>1381</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2038">
@@ -47781,16 +47808,16 @@
         <v>49</v>
       </c>
       <c r="D2038" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E2038" s="0">
-        <v>207.80000000000001</v>
+        <v>208.60000000000002</v>
       </c>
       <c r="F2038" s="0">
         <v>91</v>
       </c>
       <c r="G2038" s="0">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2039">
@@ -47801,19 +47828,19 @@
         <v>43928</v>
       </c>
       <c r="C2039" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2039" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E2039" s="0">
-        <v>187.40000000000001</v>
+        <v>188.20000000000002</v>
       </c>
       <c r="F2039" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2039" s="0">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="2040">
@@ -49897,16 +49924,16 @@
         <v>0</v>
       </c>
       <c r="D2130" s="0">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="E2130" s="0">
-        <v>413.40000000000003</v>
+        <v>417.5</v>
       </c>
       <c r="F2130" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2130" s="0">
-        <v>2816</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="2131">
@@ -49917,19 +49944,19 @@
         <v>43948</v>
       </c>
       <c r="C2131" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2131" s="0">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="E2131" s="0">
-        <v>413.40000000000003</v>
+        <v>417.5</v>
       </c>
       <c r="F2131" s="0">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G2131" s="0">
-        <v>2816</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="2132">
@@ -49940,19 +49967,19 @@
         <v>43947</v>
       </c>
       <c r="C2132" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2132" s="0">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="E2132" s="0">
-        <v>413.40000000000003</v>
+        <v>415.10000000000002</v>
       </c>
       <c r="F2132" s="0">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G2132" s="0">
-        <v>2815</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="2133">
@@ -49972,10 +49999,10 @@
         <v>409.40000000000003</v>
       </c>
       <c r="F2133" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2133" s="0">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="2134">
@@ -49998,7 +50025,7 @@
         <v>137</v>
       </c>
       <c r="G2134" s="0">
-        <v>2724</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="2135">
@@ -50021,7 +50048,7 @@
         <v>150</v>
       </c>
       <c r="G2135" s="0">
-        <v>2587</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="2136">
@@ -50044,7 +50071,7 @@
         <v>96</v>
       </c>
       <c r="G2136" s="0">
-        <v>2437</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="2137">
@@ -50064,10 +50091,10 @@
         <v>366</v>
       </c>
       <c r="F2137" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2137" s="0">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="2138">
@@ -50090,7 +50117,7 @@
         <v>71</v>
       </c>
       <c r="G2138" s="0">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="2139">
@@ -50113,7 +50140,7 @@
         <v>66</v>
       </c>
       <c r="G2139" s="0">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="2140">
@@ -50136,7 +50163,7 @@
         <v>58</v>
       </c>
       <c r="G2140" s="0">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="2141">
@@ -50159,7 +50186,7 @@
         <v>111</v>
       </c>
       <c r="G2141" s="0">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="2142">
@@ -50182,7 +50209,7 @@
         <v>89</v>
       </c>
       <c r="G2142" s="0">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="2143">
@@ -50205,7 +50232,7 @@
         <v>108</v>
       </c>
       <c r="G2143" s="0">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="2144">
@@ -50228,7 +50255,7 @@
         <v>53</v>
       </c>
       <c r="G2144" s="0">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="2145">
@@ -50251,7 +50278,7 @@
         <v>65</v>
       </c>
       <c r="G2145" s="0">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2146">
@@ -50271,10 +50298,10 @@
         <v>247.90000000000001</v>
       </c>
       <c r="F2146" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2146" s="0">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2147">
@@ -50297,7 +50324,7 @@
         <v>61</v>
       </c>
       <c r="G2147" s="0">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="2148">
@@ -50320,7 +50347,7 @@
         <v>80</v>
       </c>
       <c r="G2148" s="0">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2149">
@@ -50343,7 +50370,7 @@
         <v>117</v>
       </c>
       <c r="G2149" s="0">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2150">
@@ -50363,10 +50390,10 @@
         <v>185.80000000000001</v>
       </c>
       <c r="F2150" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2150" s="0">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="2151">
@@ -52473,16 +52500,16 @@
         <v>0</v>
       </c>
       <c r="D2242" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E2242" s="0">
-        <v>317</v>
+        <v>321.30000000000001</v>
       </c>
       <c r="F2242" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2242" s="0">
-        <v>789</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2243">
@@ -52493,19 +52520,19 @@
         <v>43948</v>
       </c>
       <c r="C2243" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2243" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E2243" s="0">
-        <v>317</v>
+        <v>321.30000000000001</v>
       </c>
       <c r="F2243" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2243" s="0">
-        <v>789</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2244">
@@ -52525,10 +52552,10 @@
         <v>317</v>
       </c>
       <c r="F2244" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G2244" s="0">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2245">
@@ -55049,14 +55076,14 @@
         <v>0</v>
       </c>
       <c r="D2354" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2354" s="0"/>
       <c r="F2354" s="0">
         <v>0</v>
       </c>
       <c r="G2354" s="0">
-        <v>1549</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2355">
@@ -55067,17 +55094,17 @@
         <v>43948</v>
       </c>
       <c r="C2355" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2355" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2355" s="0"/>
       <c r="F2355" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2355" s="0">
-        <v>1549</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2356">
@@ -55088,17 +55115,17 @@
         <v>43947</v>
       </c>
       <c r="C2356" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2356" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2356" s="0"/>
       <c r="F2356" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G2356" s="0">
-        <v>1549</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="2357">
@@ -55119,7 +55146,7 @@
         <v>10</v>
       </c>
       <c r="G2357" s="0">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2358">
@@ -55140,7 +55167,7 @@
         <v>31</v>
       </c>
       <c r="G2358" s="0">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2359">
@@ -55161,7 +55188,7 @@
         <v>34</v>
       </c>
       <c r="G2359" s="0">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2360">
@@ -55182,7 +55209,7 @@
         <v>16</v>
       </c>
       <c r="G2360" s="0">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2361">
@@ -55203,7 +55230,7 @@
         <v>11</v>
       </c>
       <c r="G2361" s="0">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="2362">
@@ -55224,7 +55251,7 @@
         <v>20</v>
       </c>
       <c r="G2362" s="0">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="2363">
@@ -55245,7 +55272,7 @@
         <v>8</v>
       </c>
       <c r="G2363" s="0">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2364">
@@ -55266,7 +55293,7 @@
         <v>12</v>
       </c>
       <c r="G2364" s="0">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2365">
@@ -55287,7 +55314,7 @@
         <v>7</v>
       </c>
       <c r="G2365" s="0">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2366">
@@ -55308,7 +55335,7 @@
         <v>13</v>
       </c>
       <c r="G2366" s="0">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2367">
@@ -55329,7 +55356,7 @@
         <v>10</v>
       </c>
       <c r="G2367" s="0">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2368">
@@ -55350,7 +55377,7 @@
         <v>20</v>
       </c>
       <c r="G2368" s="0">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2369">
@@ -55371,7 +55398,7 @@
         <v>10</v>
       </c>
       <c r="G2369" s="0">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2370">
@@ -55392,7 +55419,7 @@
         <v>12</v>
       </c>
       <c r="G2370" s="0">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2371">
@@ -55413,7 +55440,7 @@
         <v>6</v>
       </c>
       <c r="G2371" s="0">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="2372">
@@ -55434,7 +55461,7 @@
         <v>17</v>
       </c>
       <c r="G2372" s="0">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="2373">
@@ -55455,7 +55482,7 @@
         <v>14</v>
       </c>
       <c r="G2373" s="0">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="2374">
@@ -55476,7 +55503,7 @@
         <v>20</v>
       </c>
       <c r="G2374" s="0">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="2375">
@@ -55497,7 +55524,7 @@
         <v>19</v>
       </c>
       <c r="G2375" s="0">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="2376">
@@ -55518,7 +55545,7 @@
         <v>14</v>
       </c>
       <c r="G2376" s="0">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="2377">
@@ -55539,7 +55566,7 @@
         <v>5</v>
       </c>
       <c r="G2377" s="0">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="2378">
@@ -55560,7 +55587,7 @@
         <v>14</v>
       </c>
       <c r="G2378" s="0">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2379">
@@ -55581,7 +55608,7 @@
         <v>30</v>
       </c>
       <c r="G2379" s="0">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="2380">
@@ -55602,7 +55629,7 @@
         <v>36</v>
       </c>
       <c r="G2380" s="0">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="2381">
@@ -55623,7 +55650,7 @@
         <v>42</v>
       </c>
       <c r="G2381" s="0">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="2382">
@@ -55644,7 +55671,7 @@
         <v>30</v>
       </c>
       <c r="G2382" s="0">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2383">
@@ -55665,7 +55692,7 @@
         <v>35</v>
       </c>
       <c r="G2383" s="0">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="2384">
@@ -55686,7 +55713,7 @@
         <v>20</v>
       </c>
       <c r="G2384" s="0">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="2385">
@@ -55707,7 +55734,7 @@
         <v>18</v>
       </c>
       <c r="G2385" s="0">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2386">
@@ -55728,7 +55755,7 @@
         <v>41</v>
       </c>
       <c r="G2386" s="0">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2387">
@@ -55749,7 +55776,7 @@
         <v>35</v>
       </c>
       <c r="G2387" s="0">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2388">
@@ -55770,7 +55797,7 @@
         <v>53</v>
       </c>
       <c r="G2388" s="0">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2389">
@@ -55791,7 +55818,7 @@
         <v>38</v>
       </c>
       <c r="G2389" s="0">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2390">
@@ -55812,7 +55839,7 @@
         <v>28</v>
       </c>
       <c r="G2390" s="0">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2391">
@@ -55833,7 +55860,7 @@
         <v>13</v>
       </c>
       <c r="G2391" s="0">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2392">
@@ -55854,7 +55881,7 @@
         <v>7</v>
       </c>
       <c r="G2392" s="0">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2393">
@@ -55875,7 +55902,7 @@
         <v>18</v>
       </c>
       <c r="G2393" s="0">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2394">
@@ -55896,7 +55923,7 @@
         <v>18</v>
       </c>
       <c r="G2394" s="0">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2395">
@@ -55917,7 +55944,7 @@
         <v>13</v>
       </c>
       <c r="G2395" s="0">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2396">
@@ -55935,10 +55962,10 @@
       </c>
       <c r="E2396" s="0"/>
       <c r="F2396" s="0">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G2396" s="0">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2397">
@@ -57401,16 +57428,16 @@
         <v>0</v>
       </c>
       <c r="D2466" s="0">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="E2466" s="0">
-        <v>383.60000000000002</v>
+        <v>391.90000000000003</v>
       </c>
       <c r="F2466" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2466" s="0">
-        <v>1682</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="2467">
@@ -57421,19 +57448,19 @@
         <v>43948</v>
       </c>
       <c r="C2467" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2467" s="0">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="E2467" s="0">
-        <v>383.60000000000002</v>
+        <v>391.90000000000003</v>
       </c>
       <c r="F2467" s="0">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G2467" s="0">
-        <v>1682</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="2468">
@@ -57444,19 +57471,19 @@
         <v>43947</v>
       </c>
       <c r="C2468" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2468" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E2468" s="0">
-        <v>383.60000000000002</v>
+        <v>385.10000000000002</v>
       </c>
       <c r="F2468" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2468" s="0">
-        <v>1680</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="2469">
@@ -57467,19 +57494,19 @@
         <v>43946</v>
       </c>
       <c r="C2469" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2469" s="0">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E2469" s="0">
-        <v>379.10000000000002</v>
+        <v>379.80000000000001</v>
       </c>
       <c r="F2469" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2469" s="0">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="2470">
@@ -59977,16 +60004,16 @@
         <v>0</v>
       </c>
       <c r="D2578" s="0">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E2578" s="0">
-        <v>169</v>
+        <v>178.5</v>
       </c>
       <c r="F2578" s="0">
         <v>0</v>
       </c>
       <c r="G2578" s="0">
-        <v>836</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2579">
@@ -59997,19 +60024,19 @@
         <v>43948</v>
       </c>
       <c r="C2579" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2579" s="0">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E2579" s="0">
-        <v>169</v>
+        <v>178.5</v>
       </c>
       <c r="F2579" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G2579" s="0">
-        <v>836</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2580">
@@ -60020,19 +60047,19 @@
         <v>43947</v>
       </c>
       <c r="C2580" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2580" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E2580" s="0">
-        <v>169</v>
+        <v>170.40000000000001</v>
       </c>
       <c r="F2580" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2580" s="0">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2581">
@@ -60055,7 +60082,7 @@
         <v>5</v>
       </c>
       <c r="G2581" s="0">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2582">
@@ -60078,7 +60105,7 @@
         <v>33</v>
       </c>
       <c r="G2582" s="0">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2583">
@@ -60101,7 +60128,7 @@
         <v>23</v>
       </c>
       <c r="G2583" s="0">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2584">
@@ -60124,7 +60151,7 @@
         <v>30</v>
       </c>
       <c r="G2584" s="0">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2585">
@@ -60147,7 +60174,7 @@
         <v>36</v>
       </c>
       <c r="G2585" s="0">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2586">
@@ -60170,7 +60197,7 @@
         <v>44</v>
       </c>
       <c r="G2586" s="0">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2587">
@@ -60193,7 +60220,7 @@
         <v>21</v>
       </c>
       <c r="G2587" s="0">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2588">
@@ -60213,10 +60240,10 @@
         <v>130.80000000000001</v>
       </c>
       <c r="F2588" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2588" s="0">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2589">
@@ -60236,10 +60263,10 @@
         <v>127.10000000000001</v>
       </c>
       <c r="F2589" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2589" s="0">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2590">
@@ -60262,7 +60289,7 @@
         <v>32</v>
       </c>
       <c r="G2590" s="0">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2591">
@@ -60285,7 +60312,7 @@
         <v>28</v>
       </c>
       <c r="G2591" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2592">
@@ -60308,7 +60335,7 @@
         <v>32</v>
       </c>
       <c r="G2592" s="0">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2593">
@@ -60331,7 +60358,7 @@
         <v>12</v>
       </c>
       <c r="G2593" s="0">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2594">
@@ -60354,7 +60381,7 @@
         <v>16</v>
       </c>
       <c r="G2594" s="0">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2595">
@@ -60377,7 +60404,7 @@
         <v>19</v>
       </c>
       <c r="G2595" s="0">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2596">
@@ -60397,10 +60424,10 @@
         <v>71.299999999999997</v>
       </c>
       <c r="F2596" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2596" s="0">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2597">
@@ -62580,7 +62607,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="0">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3">
@@ -62594,7 +62621,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="0">
-        <v>641</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4">
@@ -62622,7 +62649,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="0">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
@@ -62633,10 +62660,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="0">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7">
@@ -62661,10 +62688,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="0">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D8" s="0">
-        <v>1029</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="9">
@@ -62675,10 +62702,10 @@
         <v>47</v>
       </c>
       <c r="C9" s="0">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="D9" s="0">
-        <v>2562</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="10">
@@ -62703,10 +62730,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D11" s="0">
-        <v>1494</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="12">
@@ -62717,10 +62744,10 @@
         <v>47</v>
       </c>
       <c r="C12" s="0">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="D12" s="0">
-        <v>3316</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="13">
@@ -62745,10 +62772,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="0">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D14" s="0">
-        <v>1478</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="15">
@@ -62759,10 +62786,10 @@
         <v>47</v>
       </c>
       <c r="C15" s="0">
-        <v>1171</v>
+        <v>1190</v>
       </c>
       <c r="D15" s="0">
-        <v>3563</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="16">
@@ -62776,7 +62803,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -62787,10 +62814,10 @@
         <v>46</v>
       </c>
       <c r="C17" s="0">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="D17" s="0">
-        <v>1795</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="18">
@@ -62801,10 +62828,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="0">
-        <v>1360</v>
+        <v>1392</v>
       </c>
       <c r="D18" s="0">
-        <v>3716</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="19">
@@ -62829,10 +62856,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="0">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D20" s="0">
-        <v>1202</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="21">
@@ -62843,10 +62870,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="0">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D21" s="0">
-        <v>1494</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="22">
@@ -62871,10 +62898,10 @@
         <v>46</v>
       </c>
       <c r="C23" s="0">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D23" s="0">
-        <v>1328</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="24">
@@ -62885,10 +62912,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="0">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D24" s="0">
-        <v>1085</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="25">
@@ -62913,10 +62940,10 @@
         <v>46</v>
       </c>
       <c r="C26" s="0">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D26" s="0">
-        <v>1256</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="27">
@@ -62927,10 +62954,10 @@
         <v>47</v>
       </c>
       <c r="C27" s="0">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D27" s="0">
-        <v>1332</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="28">
@@ -62955,10 +62982,10 @@
         <v>46</v>
       </c>
       <c r="C29" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D29" s="0">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30">
@@ -62969,10 +62996,10 @@
         <v>47</v>
       </c>
       <c r="C30" s="0">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D30" s="0">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31">
@@ -62986,7 +63013,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -63011,10 +63038,10 @@
         <v>47</v>
       </c>
       <c r="C33" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -63080,7 +63107,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -63102,469 +63129,469 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>886</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B3" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0">
-        <v>885</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B4" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0">
-        <v>876</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B5" s="0">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0">
-        <v>861</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B6" s="0">
         <v>28</v>
       </c>
       <c r="C6" s="0">
-        <v>833</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B7" s="0">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0">
-        <v>805</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B8" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0">
-        <v>788</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B9" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0">
-        <v>766</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B10" s="0">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0">
-        <v>736</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B11" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0">
-        <v>713</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B12" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0">
-        <v>687</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B13" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
-        <v>655</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B14" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0">
-        <v>627</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B15" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0">
-        <v>594</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B16" s="0">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0">
-        <v>558</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B17" s="0">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0">
-        <v>534</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B18" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
-        <v>490</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B19" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0">
-        <v>455</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B20" s="0">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0">
-        <v>424</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B21" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0">
-        <v>401</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B22" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B23" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B24" s="0">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C24" s="0">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B25" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B26" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="0">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B27" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="0">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B28" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="0">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B29" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C29" s="0">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B30" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C30" s="0">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B31" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="0">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B32" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" s="0">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B33" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33" s="0">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B34" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C34" s="0">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B35" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B36" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="0">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B37" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B38" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C38" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B39" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B40" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B41" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C41" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B42" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B43" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -63575,10 +63602,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B45" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0">
         <v>3</v>
@@ -63586,12 +63613,23 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B46" s="0">
+        <v>3</v>
+      </c>
+      <c r="C46" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
         <v>43905</v>
       </c>
-      <c r="B46" s="0">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0">
+      <c r="B47" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0">
         <v>0</v>
       </c>
     </row>
@@ -63621,7 +63659,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -63629,7 +63667,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
@@ -63637,7 +63675,7 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
@@ -63645,7 +63683,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -63661,7 +63699,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
@@ -63669,7 +63707,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
@@ -63685,7 +63723,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
